--- a/docs/Trazabilidad.xlsx
+++ b/docs/Trazabilidad.xlsx
@@ -1,31 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristopher Rodriguez\Documents\xampp\htdocs\proTurismo\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="375" windowWidth="19875" windowHeight="8235" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="375" windowWidth="19875" windowHeight="8235" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="TABLAS" sheetId="1" r:id="rId1"/>
     <sheet name="tbtipoactividad" sheetId="2" r:id="rId2"/>
     <sheet name="tbfamilia" sheetId="3" r:id="rId3"/>
-    <sheet name="tbhabitacion" sheetId="4" r:id="rId4"/>
-    <sheet name="tbrequisitos " sheetId="15" r:id="rId5"/>
-    <sheet name="tbserviciotransporte " sheetId="13" r:id="rId6"/>
-    <sheet name="tbtrabajocomunal" sheetId="7" r:id="rId7"/>
-    <sheet name="tbprovincia" sheetId="8" r:id="rId8"/>
-    <sheet name="tbcanton" sheetId="9" r:id="rId9"/>
-    <sheet name="tbdistrito" sheetId="10" r:id="rId10"/>
-    <sheet name="tbservicioalimentacion" sheetId="11" r:id="rId11"/>
-    <sheet name="tbsitioturistico" sheetId="12" r:id="rId12"/>
+    <sheet name="tbserviciotransporte " sheetId="13" r:id="rId4"/>
+    <sheet name="tbhabitacion" sheetId="4" r:id="rId5"/>
+    <sheet name="tbrequisitos " sheetId="15" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="17" r:id="rId7"/>
+    <sheet name="tbtrabajocomunal" sheetId="7" r:id="rId8"/>
+    <sheet name="tbservicioalimentacion" sheetId="11" r:id="rId9"/>
+    <sheet name="tbsitioturistico" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="131">
   <si>
     <t>tbtipoactividad</t>
   </si>
@@ -363,13 +366,70 @@
   </si>
   <si>
     <t>$idTuRoom</t>
+  </si>
+  <si>
+    <t>idsitioturistico</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nombrecomercialsitioturistico</t>
+  </si>
+  <si>
+    <t>nombreresponsablesitioturistico</t>
+  </si>
+  <si>
+    <t>telefonositioturistico</t>
+  </si>
+  <si>
+    <t>idprovinciasitioturistico</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> idcantonsitioturistico</t>
+  </si>
+  <si>
+    <t>iddistritositioturistico</t>
+  </si>
+  <si>
+    <t>direccionexactasitioturistico</t>
+  </si>
+  <si>
+    <t>CRUD tbsitioturistico</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>tbsitioturistico</t>
+  </si>
+  <si>
+    <t>idsitioturistico,nombrecomercialsitioturistico,nombreresponsablesitioturistico,telefonositioturistico,idprovinciasitioturistico,idcantonsitioturistico,iddistritositioturistio,direccionexactasitioturistico</t>
+  </si>
+  <si>
+    <t>Nota: Debe de haberse ingresado provincias, cantones y distritos</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>nombresitioturistico,telefonositioturistico,idprovinciasitioturistico</t>
+  </si>
+  <si>
+    <t>"nombrecomercial"',"telefonositio","idprovincia"</t>
+  </si>
+  <si>
+    <t>idsitioturisticos</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>"idsitio"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +446,13 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -436,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -459,6 +526,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,6 +545,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1198,9 +1278,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152400" cy="152400"/>
     <xdr:pic>
@@ -1241,7 +1321,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1066800" y="7658100"/>
+          <a:off x="4838700" y="7629525"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1261,6 +1341,171 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="24 Imagen" descr="Índice"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4810125" y="8582025"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="24 Imagen" descr="Índice"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4800600" y="8763000"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="24 Imagen" descr="Índice"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4848225" y="8410575"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1307,7 +1552,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1342,7 +1587,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1551,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P47"/>
+  <dimension ref="B2:P48"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="F28" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2200,8 +2445,12 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+      <c r="G41" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>128</v>
+      </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
     </row>
@@ -2214,9 +2463,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="G42" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I42" s="12"/>
       <c r="J42" s="9"/>
     </row>
     <row r="43" spans="2:15">
@@ -2228,9 +2481,13 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="G43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I43" s="12"/>
       <c r="J43" s="9"/>
     </row>
     <row r="44" spans="2:15">
@@ -2242,9 +2499,13 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="G44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I44" s="12"/>
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:15">
@@ -2256,9 +2517,13 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="G45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I45" s="12"/>
       <c r="J45" s="9"/>
     </row>
     <row r="46" spans="2:15">
@@ -2270,9 +2535,13 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="G46" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I46" s="12"/>
       <c r="J46" s="9"/>
     </row>
     <row r="47" spans="2:15">
@@ -2280,49 +2549,170 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="G47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
+    <row r="48" spans="2:15">
+      <c r="G48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="18.75">
+      <c r="A2" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="13"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" t="str">
+        <f>TABLAS!H41</f>
+        <v>idsitioturisticos</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75">
+      <c r="A14" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="13"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="75">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75">
+      <c r="A20" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="13"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A20:B20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2331,7 +2721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:M24"/>
     </sheetView>
   </sheetViews>
@@ -2601,7 +2991,144 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" customWidth="1"/>
+    <col min="4" max="4" width="73.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="62.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="75">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E23"/>
+  <sheetViews>
+    <sheetView topLeftCell="C10" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -2733,12 +3260,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E23"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2862,143 +3389,6 @@
     <row r="23" spans="1:5">
       <c r="E23" t="s">
         <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E23"/>
-  <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
-      <selection sqref="A1:J28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="58.140625" customWidth="1"/>
-    <col min="4" max="4" width="73.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="62.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="75">
-      <c r="A14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="D15" s="4"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="E23" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3023,7 +3413,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
